--- a/apps/reports-api/files/REP001 PARA ETIQUETAR.xlsx
+++ b/apps/reports-api/files/REP001 PARA ETIQUETAR.xlsx
@@ -55,27 +55,27 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Jerson German Taipe Miranda</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">137165</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">07/11/2025 13:55</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Unete Actualizar Información</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PE|C16|UNETE 3.0|ACTUALIZAR INFORMACION|Eliminar postulante  63261050</t>
+      <t xml:space="preserve">Joel Wenceslao Bejar Espinoza - Tismart</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">144962</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">04/12/2025 12:40</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unete Gestiona Postulante</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MX|C18|UNETE2|GESTIONAPOSTULANTE|ACTUALIZAR ESTATUS DE SOLICITUDES UB2</t>
     </r>
   </si>
   <si>
@@ -85,37 +85,37 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">94861</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Error de datos (Data Source)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Joel Wenceslao Bejar Espinoza - Tismart</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">136848</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">06/11/2025 16:56</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">BO|C16|UNETE2|ACTUALZIAR INFORMACION|CS 0109939 SU APLICATIVO NO FIGURA EN C16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">137209</t>
+      <t xml:space="preserve">92707</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Error de codificación (Bug)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">145430</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">05/12/2025 17:57</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unete Validación Identidad</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CL|C18|UNETE3|GENERACIONDECODIGO| cc 200894286 SSICC activo, SB Pendiente de identidad</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">102507</t>
     </r>
   </si>
 </sst>
@@ -432,16 +432,16 @@
     <row r="5" customHeight="1" ht="30">
       <c r="A5" s="1" t="s"/>
       <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>19</v>
